--- a/SoleraWeb/src/java/CARGA SOLERA.xlsx
+++ b/SoleraWeb/src/java/CARGA SOLERA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEAS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\death\Desktop\Solera Web 2\SoleraWeb2\SoleraWeb\src\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E448FA-B067-4124-89F7-EE039B23DACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAA493F-7382-4FCD-941A-7D18AD33D9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -2703,9 +2703,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/SoleraWeb/src/java/CARGA SOLERA.xlsx
+++ b/SoleraWeb/src/java/CARGA SOLERA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\death\Desktop\Solera Web 2\SoleraWeb2\SoleraWeb\src\java\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEAS\Desktop\SoleraWeb\SoleraWeb\src\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAA493F-7382-4FCD-941A-7D18AD33D9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F885800-0184-47E2-B848-C3E7BE6F0D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -2700,10 +2700,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A153"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2792,7 +2793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>42147405</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>42172278</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>42118536</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>42129149</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42152626</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>52</v>
       </c>
@@ -3163,7 +3164,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>42164643</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>61</v>
       </c>
@@ -3269,7 +3270,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>72</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>42187629</v>
       </c>
@@ -3428,7 +3429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>80</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>84</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>42290076</v>
       </c>
@@ -3640,7 +3641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>98</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>102</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>42290090</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>110</v>
       </c>
@@ -3852,7 +3853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>114</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>42219888</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>127</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>131</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>42220909</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>153</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>158</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>163</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>168</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>172</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>182</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42238835</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>42247976</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>204</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>211</v>
       </c>
@@ -5124,7 +5125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>215</v>
       </c>
@@ -5177,7 +5178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>218</v>
       </c>
@@ -5230,7 +5231,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>42253434</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>253</v>
       </c>
@@ -5654,7 +5655,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>256</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>265</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>42223774</v>
       </c>
@@ -6025,7 +6026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>42256179</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>42203432</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>42209886</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>42235325</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>42249655</v>
       </c>
@@ -6820,7 +6821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>42252022</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>42252106</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>42271411</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>346</v>
       </c>
@@ -7403,7 +7404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>366</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>369</v>
       </c>
@@ -7509,7 +7510,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>374</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>42235739</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>42280136</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>42258694</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>414</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>42275385</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>42215868</v>
       </c>
@@ -8304,7 +8305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>42271609</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>42253152</v>
       </c>
@@ -8516,7 +8517,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>42271388</v>
       </c>
@@ -8569,7 +8570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>445</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>448</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>452</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>42160898</v>
       </c>
@@ -8940,7 +8941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>42208866</v>
       </c>
@@ -8993,7 +8994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>42147035</v>
       </c>
@@ -9046,7 +9047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>42219498</v>
       </c>
@@ -9205,7 +9206,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>42264110</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>42238508</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>495</v>
       </c>
@@ -9470,7 +9471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>42159905</v>
       </c>
@@ -9629,7 +9630,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>42120328</v>
       </c>
@@ -9682,7 +9683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>42151241</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>513</v>
       </c>
@@ -9788,7 +9789,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>42164126</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>42188233</v>
       </c>
@@ -9894,7 +9895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>42227174</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>42234951</v>
       </c>
@@ -10106,7 +10107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>534</v>
       </c>
@@ -10159,7 +10160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>42288344</v>
       </c>
@@ -10212,7 +10213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>42271794</v>
       </c>
@@ -10265,7 +10266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>42260510</v>
       </c>
@@ -10318,7 +10319,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>42278304</v>
       </c>
@@ -10371,7 +10372,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>42269552</v>
       </c>
@@ -10424,7 +10425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>42230078</v>
       </c>
@@ -10477,7 +10478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>42242925</v>
       </c>
@@ -10530,7 +10531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>42162836</v>
       </c>
@@ -10583,7 +10584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>42287925</v>
       </c>
@@ -10689,7 +10690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>42265435</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>42269653</v>
       </c>
@@ -10849,70 +10850,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q153" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="123LEASE SAPI DE CV//FLORISEL REYES CRUZ"/>
-        <filter val="ABRAHAM RAFAEL SUAREZ HEREDIA//MUNICIPIO DE HIDALGO MICHOACAN"/>
-        <filter val="AGROS HORTICULTORES S.A. DE C.V.//JESUS AVIÑA"/>
-        <filter val="ALD AUTOMOTIVE SA DE CV//JOSE ALBERTO VAZQUEZ RAMIREZ"/>
-        <filter val="ALD AUTOMOTIVE SA DE CV//JOSE ANTONIO GARCIA DIAS"/>
-        <filter val="ALD AUTOMOTIVE SA DE CV//NOHEMI PLANCARTE PULIDO"/>
-        <filter val="ARTURO PEREZ LUNA//FELIPE DE JESUS LOPEZ LEOS"/>
-        <filter val="CARNES SELECTAS ICEA SA DE CV//GUILLERMO ARANDAS PINTO"/>
-        <filter val="CARNES SELECTAS ICEA SA DE CV//MOISES CORDERO INDA"/>
-        <filter val="CARZA ARRENDAMIENTO S.A. DE C.V.//JUAN LUIS HERNANDEZ"/>
-        <filter val="CARZA ARRENDAMIENTO S.A. DE C.V.//SAUL JUAREZ LOPEZ"/>
-        <filter val="COMERCIALIZADORA PUNTO GDL SA DE CV//JOSE EDUARDO ROMERO ALVAREZ"/>
-        <filter val="CORPORATIVO DE PROTECCION SEGURIDAD PRIVADA Y SERV ESPECIALIZADOS SA DE CV//LUIS ANDRES DUARTE PEÃUELAS"/>
-        <filter val="D CONCREFOCC SA DE CV//RAUL ROMERO ARELLANO"/>
-        <filter val="DIMA RODRIGUEZ OVIEDO//MARCELA GUADALUPE IBARRA LOPEZ"/>
-        <filter val="EDGAR RICARDO MONTERO ESPARZA//MUNICIPIO DE TEQUILA JAL"/>
-        <filter val="EDREI HERNÃNDEZ LUGO//ERICK TOSER NUÃO JIMÃNEZ"/>
-        <filter val="ERIC HERNANDEZ DE LA CRUZ   // SAUL BENJAMIN GONZALEZ"/>
-        <filter val="GERARDO HERNANDEZ CAMPOS //MARIA RAMIREZ"/>
-        <filter val="GIRECO SA DE CV//KARINA MERCADO MUNGARAY"/>
-        <filter val="GRUPO INTERMOVIL KREMPDOR S DE RL DE CV//JOSEU CORDOBA NUÃEZ"/>
-        <filter val="GRUPO TRACTOCAMIONES Y AUTOBUSES DEL BAJIO SA DE CV//JORGE DANIEL MARTINEZ"/>
-        <filter val="HELM DE MEXICO SA//GUSTAVO IGNACIO LEMUS MENDIOLA"/>
-        <filter val="INTERNATIONAL BUSINESS AND BEST MONEY SA DE CV//ANTONIO HERNANDEZ"/>
-        <filter val="ISRAEL GONZALEZ RAMIREZ//JUAN CAMARENA"/>
-        <filter val="ISRAEL LOPEZ LOPEZ//ERNESTO DE JESUS MORENO GUTIERREZ"/>
-        <filter val="LEASEPLAN MEXICO SA DE CV//AGUSTIN BLANCO CERVANTES"/>
-        <filter val="LEASEPLAN MEXICO SA DE CV//BRAULIO ALEXIS MALDONADO AGUILAR"/>
-        <filter val="LEASEPLAN MEXICO SA DE CV//EDGAR BARAJAS SEVILLA"/>
-        <filter val="MAGNOCENTRO FERRETERO SA DE CV//RAFAEL MALDONADO MORA"/>
-        <filter val="MANZAHNOS VIAJES SA DE CV//FERNANDO BERNAL//OSCAR MANZANO"/>
-        <filter val="MILAGROS CORONA VERGARA//DANIEL SEGOVIANO SCHMIDT"/>
-        <filter val="MUEBLERIA HIDALGO DEL NOROESTE SA DE CV//JUAN SERRANO"/>
-        <filter val="MUNICIPIO DE LA HUERTA JALISCO//SALVADOR LOPEZ PRECIADO"/>
-        <filter val="MUNICIPIO DE SAN LUIS RIO COLORADO SONORA//GILBERTO ROBLES ZEPEDA"/>
-        <filter val="MUNICIPIO DE SAN PEDRO TLAQUEPAQUE//ÃSCAR FLAVIO PÃREZ ELVIRA"/>
-        <filter val="MUNICIPIO DE SAN PEDRO TLAQUEPAQUE//CARLOS EDUARDO BLADIMIR MURILLO"/>
-        <filter val="MUNICIPIO DE TALA//JOSÃ MANUEL RUIZ QUEZADA"/>
-        <filter val="MUNICIPIO DE TAMAZULA DE GORDIANO JALISCO//CESAR ARMANDO ESQUIVEL TORRES"/>
-        <filter val="MUNICIPIO DE TECOLOTLAN JALISCO//RIGOBERTO ANDRADE RODRIGUEZ"/>
-        <filter val="PIZZA Y COME S.A DE C.V//ROBERTO JAUREGUI LEE"/>
-        <filter val="PRISMA ENVASE SA DE CV//ERNESTO GOMEZ//LENIA RIVERON"/>
-        <filter val="PRO TECH INTERNATIONAL SERVICES S.A. DE C.V.//ALFREDO OLIVARES FERNANDEZ"/>
-        <filter val="RAFAEL GARCIA VAES//MA ESTELA BAEZ ALVAREZ"/>
-        <filter val="RICARDO PEñA//ANA IRENE GUADALUPE BARAJAS MARTINEZ"/>
-        <filter val="RUBEN HEREDIA LARIOS//GABRIEL HEREDIA TORRES"/>
-        <filter val="SANCHEZ SA DE CV//HECTOR ARIAS MORENO"/>
-        <filter val="SEMIRE SA DE CV//MISAEL OCHOA MENDEZ"/>
-        <filter val="SERVICIOS INTEGRALES EN EL MANEJO DEL AMBIENTE S DE RL DE CV// LETICIA JIMENEZ ESQUIVEL"/>
-        <filter val="SOCIEDAD ECOLOGICA PARA EL MANEJO DE RESIDUOS SA//EDGAR FELIPE NUñO"/>
-        <filter val="SOLUCIONES Y APLICACIONES EN PROCEDIMIENTOS INTRAMUROS SA DE CV//FREDY MAGDALENO ZEA"/>
-        <filter val="START BANREGIO SA DE CV SOFOM ER BANREGIO GRUPO FINANCIERO//JUAN MANUEL VEGA FLORES"/>
-        <filter val="SUSPENSION Y DIRECCION SA DE CV//MOISES VAZQUEZ VELASQUEZ"/>
-        <filter val="TACTICA Y TECNOLOGIA EN SEGURIDAD PRIVADA SA DE CV//JAVIER HERNANDEZ// RAFAEL ALTAMIRANO"/>
-        <filter val="TACTICA Y TECNOLOGIA EN SEGURIDAD PRIVADA SA DE CV//ROMULO VILLALOBOS FERNANDEZ"/>
-        <filter val="TRECE CAR RENTAL GROUP SA DE CV//ROBERTO MEDRANO"/>
-        <filter val="UBER PORTIER MEXICO S DE RL DE//SERGIO ANTONIO GOMEZ SAUCEDA"/>
-        <filter val="WIRELESS MOBILE SA DE CV//ABRAHAM MACHADO SANTIAGO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q153" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/SoleraWeb/src/java/CARGA SOLERA.xlsx
+++ b/SoleraWeb/src/java/CARGA SOLERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEAS\Desktop\SoleraWeb\SoleraWeb\src\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F885800-0184-47E2-B848-C3E7BE6F0D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024ABFBE-5A34-4629-A304-7F85839DA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="602">
   <si>
     <t>MARCA</t>
   </si>
@@ -1753,6 +1753,93 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>JOSE DE JESUS JINEZ GARCES</t>
+  </si>
+  <si>
+    <t>SINDATO@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>BAIC</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>LNBSCBAF9JR019211</t>
+  </si>
+  <si>
+    <t>MONTERREY</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>422A2432</t>
+  </si>
+  <si>
+    <t>LEASEPLAN MEXICO SA DE CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8000053273</t>
+  </si>
+  <si>
+    <t>MA6CA6CD1MT014733</t>
+  </si>
+  <si>
+    <t>SOPORTE PARA EMPRESAS, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>JURIDICO.PACIFICO@MULTISISTEMAS.COM.MX</t>
+  </si>
+  <si>
+    <t>URVAN</t>
+  </si>
+  <si>
+    <t>JN1BE6DS2K9034595</t>
+  </si>
+  <si>
+    <t>RICARDO DE JESUS MU&amp;OZ GARCIA</t>
+  </si>
+  <si>
+    <t>KL1CM6CD4CC565932</t>
+  </si>
+  <si>
+    <t>VLADIMIS CASARRUBIAS GOMEZ</t>
+  </si>
+  <si>
+    <t>SAVEIRO</t>
+  </si>
+  <si>
+    <t>9BWKB05U5BP172751</t>
+  </si>
+  <si>
+    <t>MARTIN FUENTES CHAVEZ</t>
+  </si>
+  <si>
+    <t>SUBARU</t>
+  </si>
+  <si>
+    <t>FORESTER</t>
+  </si>
+  <si>
+    <t>JF2SKDMC0MH477955</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>MARTIN RIOS DIAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINI COOPER </t>
+  </si>
+  <si>
+    <t>WMWSU3105BT074610</t>
   </si>
 </sst>
 </file>
@@ -2700,10 +2787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q153"/>
+  <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A153"/>
+    <sheetView tabSelected="1" topLeftCell="H67" workbookViewId="0">
+      <selection activeCell="L157" sqref="L157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10849,6 +10936,365 @@
         <v>29</v>
       </c>
     </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>42263916</v>
+      </c>
+      <c r="B154" s="4">
+        <v>2023</v>
+      </c>
+      <c r="C154" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154" t="s">
+        <v>573</v>
+      </c>
+      <c r="F154" t="s">
+        <v>574</v>
+      </c>
+      <c r="G154" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154">
+        <v>8121949810</v>
+      </c>
+      <c r="I154">
+        <v>8125823403</v>
+      </c>
+      <c r="J154" t="s">
+        <v>575</v>
+      </c>
+      <c r="K154" t="s">
+        <v>576</v>
+      </c>
+      <c r="L154" t="s">
+        <v>577</v>
+      </c>
+      <c r="M154">
+        <v>2018</v>
+      </c>
+      <c r="N154" t="s">
+        <v>578</v>
+      </c>
+      <c r="O154" t="s">
+        <v>579</v>
+      </c>
+      <c r="P154" s="4">
+        <v>44818</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>581</v>
+      </c>
+      <c r="B155" s="4">
+        <v>2024</v>
+      </c>
+      <c r="C155" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" t="s">
+        <v>582</v>
+      </c>
+      <c r="G155" t="s">
+        <v>22</v>
+      </c>
+      <c r="H155">
+        <v>3323102480</v>
+      </c>
+      <c r="I155" t="s">
+        <v>583</v>
+      </c>
+      <c r="J155" t="s">
+        <v>575</v>
+      </c>
+      <c r="K155" t="s">
+        <v>32</v>
+      </c>
+      <c r="L155" t="s">
+        <v>543</v>
+      </c>
+      <c r="M155">
+        <v>2021</v>
+      </c>
+      <c r="N155" t="s">
+        <v>584</v>
+      </c>
+      <c r="O155" t="s">
+        <v>28</v>
+      </c>
+      <c r="P155" s="4">
+        <v>44819</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>42231148</v>
+      </c>
+      <c r="B156" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156" t="s">
+        <v>20</v>
+      </c>
+      <c r="F156" t="s">
+        <v>585</v>
+      </c>
+      <c r="G156" t="s">
+        <v>22</v>
+      </c>
+      <c r="H156">
+        <v>5554389669</v>
+      </c>
+      <c r="I156">
+        <v>5554510121</v>
+      </c>
+      <c r="J156" t="s">
+        <v>586</v>
+      </c>
+      <c r="K156" t="s">
+        <v>104</v>
+      </c>
+      <c r="L156" t="s">
+        <v>587</v>
+      </c>
+      <c r="M156">
+        <v>2019</v>
+      </c>
+      <c r="N156" t="s">
+        <v>588</v>
+      </c>
+      <c r="O156" t="s">
+        <v>28</v>
+      </c>
+      <c r="P156" s="4">
+        <v>44820</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>42280252</v>
+      </c>
+      <c r="B157" s="4">
+        <v>2026</v>
+      </c>
+      <c r="C157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" t="s">
+        <v>573</v>
+      </c>
+      <c r="E157" t="s">
+        <v>573</v>
+      </c>
+      <c r="F157" t="s">
+        <v>589</v>
+      </c>
+      <c r="G157" t="s">
+        <v>22</v>
+      </c>
+      <c r="H157">
+        <v>3316687072</v>
+      </c>
+      <c r="J157" t="s">
+        <v>575</v>
+      </c>
+      <c r="K157" t="s">
+        <v>32</v>
+      </c>
+      <c r="L157" t="s">
+        <v>78</v>
+      </c>
+      <c r="M157">
+        <v>2012</v>
+      </c>
+      <c r="N157" t="s">
+        <v>590</v>
+      </c>
+      <c r="O157" t="s">
+        <v>573</v>
+      </c>
+      <c r="P157" s="4">
+        <v>44821</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>42270478</v>
+      </c>
+      <c r="B158" s="4">
+        <v>2027</v>
+      </c>
+      <c r="C158" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" t="s">
+        <v>573</v>
+      </c>
+      <c r="E158" t="s">
+        <v>573</v>
+      </c>
+      <c r="F158" t="s">
+        <v>591</v>
+      </c>
+      <c r="G158" t="s">
+        <v>22</v>
+      </c>
+      <c r="H158">
+        <v>3331579474</v>
+      </c>
+      <c r="J158" t="s">
+        <v>575</v>
+      </c>
+      <c r="K158" t="s">
+        <v>90</v>
+      </c>
+      <c r="L158" t="s">
+        <v>592</v>
+      </c>
+      <c r="M158">
+        <v>2011</v>
+      </c>
+      <c r="N158" t="s">
+        <v>593</v>
+      </c>
+      <c r="O158" t="s">
+        <v>573</v>
+      </c>
+      <c r="P158" s="4">
+        <v>44822</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>42276023</v>
+      </c>
+      <c r="B159" s="4">
+        <v>2028</v>
+      </c>
+      <c r="C159" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" t="s">
+        <v>573</v>
+      </c>
+      <c r="E159" t="s">
+        <v>573</v>
+      </c>
+      <c r="F159" t="s">
+        <v>594</v>
+      </c>
+      <c r="G159" t="s">
+        <v>22</v>
+      </c>
+      <c r="H159">
+        <v>6869450456</v>
+      </c>
+      <c r="J159" t="s">
+        <v>575</v>
+      </c>
+      <c r="K159" t="s">
+        <v>595</v>
+      </c>
+      <c r="L159" t="s">
+        <v>596</v>
+      </c>
+      <c r="M159">
+        <v>2021</v>
+      </c>
+      <c r="N159" t="s">
+        <v>597</v>
+      </c>
+      <c r="O159" t="s">
+        <v>573</v>
+      </c>
+      <c r="P159" s="4">
+        <v>44823</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>42270478</v>
+      </c>
+      <c r="B160" s="4">
+        <v>2029</v>
+      </c>
+      <c r="C160" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160" t="s">
+        <v>598</v>
+      </c>
+      <c r="F160" t="s">
+        <v>599</v>
+      </c>
+      <c r="G160" t="s">
+        <v>22</v>
+      </c>
+      <c r="H160">
+        <v>3313334810</v>
+      </c>
+      <c r="J160" t="s">
+        <v>431</v>
+      </c>
+      <c r="K160" t="s">
+        <v>432</v>
+      </c>
+      <c r="L160" t="s">
+        <v>600</v>
+      </c>
+      <c r="M160">
+        <v>2011</v>
+      </c>
+      <c r="N160" t="s">
+        <v>601</v>
+      </c>
+      <c r="O160" t="s">
+        <v>28</v>
+      </c>
+      <c r="P160" s="4">
+        <v>44824</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>580</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Q153" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SoleraWeb/src/java/CARGA SOLERA.xlsx
+++ b/SoleraWeb/src/java/CARGA SOLERA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEAS\Desktop\SoleraWeb\SoleraWeb\src\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024ABFBE-5A34-4629-A304-7F85839DA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB91F7A-AB5E-4DF7-911F-975E7D4B6151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2176,7 +2176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2789,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H67" workbookViewId="0">
-      <selection activeCell="L157" sqref="L157"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,7 +3252,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="10">
         <v>42164643</v>
       </c>
       <c r="B9" s="4">
@@ -3305,7 +3305,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="4">
@@ -3358,7 +3358,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="4">
@@ -3411,7 +3411,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="4">
@@ -3464,7 +3464,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="10">
         <v>42187629</v>
       </c>
       <c r="B13" s="4">
@@ -3517,7 +3517,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="4">
@@ -3570,7 +3570,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="4">
@@ -3623,7 +3623,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="4">
@@ -3676,7 +3676,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="10">
         <v>42290076</v>
       </c>
       <c r="B17" s="4">
@@ -3729,7 +3729,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B18" s="4">
@@ -3782,7 +3782,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B19" s="4">
@@ -3835,7 +3835,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="10">
         <v>42290090</v>
       </c>
       <c r="B20" s="4">
@@ -3888,7 +3888,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B21" s="4">
@@ -3941,7 +3941,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="4">
@@ -3994,7 +3994,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="10">
         <v>42219888</v>
       </c>
       <c r="B23" s="4">
@@ -4047,7 +4047,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="10">
         <v>42137312</v>
       </c>
       <c r="B24" s="4">
@@ -4100,7 +4100,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B25" s="4">
@@ -4153,7 +4153,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B26" s="4">
@@ -4259,7 +4259,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B28" s="4">
@@ -4312,7 +4312,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="10">
         <v>42229972</v>
       </c>
       <c r="B29" s="4">
@@ -4365,7 +4365,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="10">
         <v>42220909</v>
       </c>
       <c r="B30" s="4">
@@ -4418,7 +4418,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B31" s="4">
@@ -4471,7 +4471,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="4">
@@ -4524,7 +4524,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="10" t="s">
         <v>163</v>
       </c>
       <c r="B33" s="4">
@@ -4577,7 +4577,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="10" t="s">
         <v>168</v>
       </c>
       <c r="B34" s="4">
@@ -4630,7 +4630,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="10" t="s">
         <v>172</v>
       </c>
       <c r="B35" s="4">
@@ -4683,7 +4683,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>176</v>
       </c>
       <c r="B36" s="4">
@@ -4736,7 +4736,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="10" t="s">
         <v>182</v>
       </c>
       <c r="B37" s="4">
@@ -4789,7 +4789,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="10">
         <v>42238835</v>
       </c>
       <c r="B38" s="4">
@@ -4842,7 +4842,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="10">
         <v>42226153</v>
       </c>
       <c r="B39" s="4">
@@ -4895,7 +4895,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="10">
         <v>42247976</v>
       </c>
       <c r="B40" s="4">
@@ -4948,7 +4948,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>196</v>
       </c>
       <c r="B41" s="4">
@@ -5001,7 +5001,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="10">
         <v>42233189</v>
       </c>
       <c r="B42" s="4">
@@ -5054,7 +5054,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="10" t="s">
         <v>204</v>
       </c>
       <c r="B43" s="4">
@@ -5107,7 +5107,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>207</v>
       </c>
       <c r="B44" s="4">
@@ -5160,7 +5160,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="10" t="s">
         <v>211</v>
       </c>
       <c r="B45" s="4">
@@ -5213,7 +5213,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B46" s="4">
@@ -5266,7 +5266,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B47" s="4">

--- a/SoleraWeb/src/java/CARGA SOLERA.xlsx
+++ b/SoleraWeb/src/java/CARGA SOLERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEAS\Desktop\SoleraWeb\SoleraWeb\src\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB91F7A-AB5E-4DF7-911F-975E7D4B6151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8524638F-EB54-4967-A623-8FF1A48861A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1975,7 +1975,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2153,24 +2153,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,7 +2370,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2407,9 +2389,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="40">
     <cellStyle name="20% - Énfasis1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2789,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,7 +2860,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="4">
@@ -2934,7 +2913,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>42147405</v>
       </c>
       <c r="B3" s="4">
@@ -3199,7 +3178,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="4">
@@ -3252,7 +3231,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>42164643</v>
       </c>
       <c r="B9" s="4">
@@ -3305,7 +3284,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="4">
@@ -3358,7 +3337,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="4">
@@ -3411,7 +3390,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B12" s="4">
@@ -3464,7 +3443,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>42187629</v>
       </c>
       <c r="B13" s="4">
@@ -3517,7 +3496,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B14" s="4">
@@ -3570,7 +3549,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="4">
@@ -3623,7 +3602,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B16" s="4">
@@ -3676,7 +3655,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <v>42290076</v>
       </c>
       <c r="B17" s="4">
@@ -3729,7 +3708,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B18" s="4">
@@ -3782,7 +3761,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B19" s="4">
@@ -3835,7 +3814,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>42290090</v>
       </c>
       <c r="B20" s="4">
@@ -3888,7 +3867,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B21" s="4">
@@ -3941,7 +3920,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="4">
@@ -3994,7 +3973,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="7">
         <v>42219888</v>
       </c>
       <c r="B23" s="4">
@@ -4047,7 +4026,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>42137312</v>
       </c>
       <c r="B24" s="4">
@@ -4100,7 +4079,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B25" s="4">
@@ -4153,7 +4132,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B26" s="4">
@@ -4206,7 +4185,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B27" s="4">
@@ -4259,7 +4238,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B28" s="4">
@@ -4312,7 +4291,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="7">
         <v>42229972</v>
       </c>
       <c r="B29" s="4">
@@ -4365,7 +4344,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>42220909</v>
       </c>
       <c r="B30" s="4">
@@ -4418,7 +4397,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B31" s="4">
@@ -4471,7 +4450,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B32" s="4">
@@ -4524,7 +4503,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B33" s="4">
@@ -4577,7 +4556,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B34" s="4">
@@ -4630,7 +4609,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B35" s="4">
@@ -4683,7 +4662,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B36" s="4">
@@ -4736,7 +4715,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B37" s="4">
@@ -4789,7 +4768,7 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <v>42238835</v>
       </c>
       <c r="B38" s="4">
@@ -4842,7 +4821,7 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="7">
         <v>42226153</v>
       </c>
       <c r="B39" s="4">
@@ -4895,7 +4874,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="7">
         <v>42247976</v>
       </c>
       <c r="B40" s="4">
@@ -4948,7 +4927,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B41" s="4">
@@ -5001,7 +4980,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="7">
         <v>42233189</v>
       </c>
       <c r="B42" s="4">
@@ -5054,7 +5033,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B43" s="4">
@@ -5107,7 +5086,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>207</v>
       </c>
       <c r="B44" s="4">
@@ -5160,7 +5139,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B45" s="4">
@@ -5213,7 +5192,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>215</v>
       </c>
       <c r="B46" s="4">
@@ -5266,7 +5245,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>218</v>
       </c>
       <c r="B47" s="4">
@@ -5319,7 +5298,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="7">
         <v>42253434</v>
       </c>
       <c r="B48" s="4">
@@ -5372,7 +5351,7 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+      <c r="A49" s="7">
         <v>42261869</v>
       </c>
       <c r="B49" s="4">
@@ -5425,7 +5404,7 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="A50" s="7">
         <v>42150159</v>
       </c>
       <c r="B50" s="4">
@@ -5478,7 +5457,7 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B51" s="4">
@@ -5531,7 +5510,7 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B52" s="4">
@@ -5584,7 +5563,7 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>242</v>
       </c>
       <c r="B53" s="4">
@@ -5637,7 +5616,7 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B54" s="4">
@@ -5690,7 +5669,7 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B55" s="4">
@@ -5743,7 +5722,7 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="7" t="s">
         <v>256</v>
       </c>
       <c r="B56" s="4">
@@ -5796,7 +5775,7 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B57" s="4">
@@ -5849,7 +5828,7 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B58" s="4">
@@ -5902,7 +5881,7 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="7">
         <v>42260060</v>
       </c>
       <c r="B59" s="4">
@@ -5955,7 +5934,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="7">
         <v>42255429</v>
       </c>
       <c r="B60" s="4">
@@ -6008,7 +5987,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="7">
         <v>42223774</v>
       </c>
       <c r="B61" s="4">
@@ -6061,7 +6040,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="7">
         <v>42258294</v>
       </c>
       <c r="B62" s="4">
@@ -6114,7 +6093,7 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="7">
         <v>42256179</v>
       </c>
       <c r="B63" s="4">
@@ -6167,7 +6146,7 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="7">
         <v>42214102</v>
       </c>
       <c r="B64" s="4">
@@ -6220,7 +6199,7 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="7">
         <v>42183825</v>
       </c>
       <c r="B65" s="4">
@@ -6273,7 +6252,7 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="7">
         <v>42236408</v>
       </c>
       <c r="B66" s="4">
@@ -6326,7 +6305,7 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="7">
         <v>42203432</v>
       </c>
       <c r="B67" s="4">
@@ -6379,7 +6358,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="7">
         <v>42186608</v>
       </c>
       <c r="B68" s="4">
@@ -6432,7 +6411,7 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="7">
         <v>42184962</v>
       </c>
       <c r="B69" s="4">
@@ -6485,7 +6464,7 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="7">
         <v>42066068</v>
       </c>
       <c r="B70" s="4">
@@ -6538,7 +6517,7 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="7">
         <v>42162602</v>
       </c>
       <c r="B71" s="4">
@@ -6591,7 +6570,7 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="7">
         <v>42170663</v>
       </c>
       <c r="B72" s="4">
@@ -6644,7 +6623,7 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="7">
         <v>42200516</v>
       </c>
       <c r="B73" s="4">
@@ -6697,7 +6676,7 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="7">
         <v>42209886</v>
       </c>
       <c r="B74" s="4">
@@ -6750,7 +6729,7 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="7">
         <v>42235325</v>
       </c>
       <c r="B75" s="4">
@@ -6803,7 +6782,7 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="7">
         <v>42249655</v>
       </c>
       <c r="B76" s="4">
@@ -6856,7 +6835,7 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="7">
         <v>42251445</v>
       </c>
       <c r="B77" s="4">
@@ -6909,7 +6888,7 @@
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="7">
         <v>42252022</v>
       </c>
       <c r="B78" s="4">
@@ -6962,7 +6941,7 @@
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="7">
         <v>42252106</v>
       </c>
       <c r="B79" s="4">
@@ -7015,7 +6994,7 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="7">
         <v>42271411</v>
       </c>
       <c r="B80" s="4">
@@ -7068,7 +7047,7 @@
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="7">
         <v>42271720</v>
       </c>
       <c r="B81" s="4">
@@ -7121,7 +7100,7 @@
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="7">
         <v>42270613</v>
       </c>
       <c r="B82" s="4">
@@ -7174,7 +7153,7 @@
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="7">
         <v>42275840</v>
       </c>
       <c r="B83" s="4">
@@ -7227,7 +7206,7 @@
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>346</v>
       </c>
       <c r="B84" s="4">
@@ -7280,7 +7259,7 @@
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>349</v>
       </c>
       <c r="B85" s="4">
@@ -7333,7 +7312,7 @@
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>352</v>
       </c>
       <c r="B86" s="4">
@@ -7386,7 +7365,7 @@
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>358</v>
       </c>
       <c r="B87" s="4">
@@ -7439,7 +7418,7 @@
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>361</v>
       </c>
       <c r="B88" s="4">
@@ -7492,7 +7471,7 @@
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>366</v>
       </c>
       <c r="B89" s="4">
@@ -7545,7 +7524,7 @@
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>369</v>
       </c>
       <c r="B90" s="4">
@@ -7598,7 +7577,7 @@
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>374</v>
       </c>
       <c r="B91" s="4">
@@ -7651,7 +7630,7 @@
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="7">
         <v>42235739</v>
       </c>
       <c r="B92" s="4">
@@ -7704,7 +7683,7 @@
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="7">
         <v>42280136</v>
       </c>
       <c r="B93" s="4">
@@ -7757,7 +7736,7 @@
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="7">
         <v>42258694</v>
       </c>
       <c r="B94" s="4">
@@ -7810,7 +7789,7 @@
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>389</v>
       </c>
       <c r="B95" s="4">
@@ -7863,7 +7842,7 @@
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>394</v>
       </c>
       <c r="B96" s="4">
@@ -7916,7 +7895,7 @@
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>398</v>
       </c>
       <c r="B97" s="4">
@@ -7969,7 +7948,7 @@
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="7">
         <v>42277852</v>
       </c>
       <c r="B98" s="4">
@@ -8022,7 +8001,7 @@
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="7">
         <v>42231500</v>
       </c>
       <c r="B99" s="4">
@@ -8075,7 +8054,7 @@
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>407</v>
       </c>
       <c r="B100" s="4">
@@ -8128,7 +8107,7 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>410</v>
       </c>
       <c r="B101" s="4">
@@ -8181,7 +8160,7 @@
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>414</v>
       </c>
       <c r="B102" s="4">
@@ -8234,7 +8213,7 @@
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>419</v>
       </c>
       <c r="B103" s="4">
@@ -8287,7 +8266,7 @@
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="7">
         <v>42275385</v>
       </c>
       <c r="B104" s="4">
@@ -8340,7 +8319,7 @@
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="7">
         <v>42215868</v>
       </c>
       <c r="B105" s="4">
@@ -8393,7 +8372,7 @@
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="7">
         <v>42271609</v>
       </c>
       <c r="B106" s="4">
@@ -8446,7 +8425,7 @@
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="7">
         <v>42263231</v>
       </c>
       <c r="B107" s="4">
@@ -8499,7 +8478,7 @@
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="7">
         <v>42253152</v>
       </c>
       <c r="B108" s="4">
@@ -8552,7 +8531,7 @@
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="7">
         <v>42227040</v>
       </c>
       <c r="B109" s="4">
@@ -8605,7 +8584,7 @@
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="7">
         <v>42271388</v>
       </c>
       <c r="B110" s="4">
@@ -8658,7 +8637,7 @@
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>445</v>
       </c>
       <c r="B111" s="4">
@@ -8711,7 +8690,7 @@
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>448</v>
       </c>
       <c r="B112" s="4">
@@ -8764,7 +8743,7 @@
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>452</v>
       </c>
       <c r="B113" s="4">
@@ -8817,7 +8796,7 @@
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="7">
         <v>42110944</v>
       </c>
       <c r="B114" s="4">
@@ -8870,7 +8849,7 @@
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="7">
         <v>42160898</v>
       </c>
       <c r="B115" s="4">
@@ -8923,7 +8902,7 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="7">
         <v>42232419</v>
       </c>
       <c r="B116" s="4">
@@ -8976,7 +8955,7 @@
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="7">
         <v>42271079</v>
       </c>
       <c r="B117" s="4">
@@ -9029,7 +9008,7 @@
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="7">
         <v>42208866</v>
       </c>
       <c r="B118" s="4">
@@ -9082,7 +9061,7 @@
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="7">
         <v>42147035</v>
       </c>
       <c r="B119" s="4">
@@ -9135,7 +9114,7 @@
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="7">
         <v>42219498</v>
       </c>
       <c r="B120" s="4">
@@ -9188,7 +9167,7 @@
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="7">
         <v>42164534</v>
       </c>
       <c r="B121" s="4">
@@ -9241,7 +9220,7 @@
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="7">
         <v>42232770</v>
       </c>
       <c r="B122" s="4">
@@ -9294,7 +9273,7 @@
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="7">
         <v>42264110</v>
       </c>
       <c r="B123" s="4">
@@ -9347,7 +9326,7 @@
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="7">
         <v>42240433</v>
       </c>
       <c r="B124" s="4">
@@ -9400,7 +9379,7 @@
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="7">
         <v>42245531</v>
       </c>
       <c r="B125" s="4">
@@ -9453,7 +9432,7 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="7">
         <v>42238508</v>
       </c>
       <c r="B126" s="4">
@@ -9506,7 +9485,7 @@
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="7" t="s">
         <v>495</v>
       </c>
       <c r="B127" s="4">
@@ -9559,7 +9538,7 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="7">
         <v>42159905</v>
       </c>
       <c r="B128" s="4">
@@ -9612,7 +9591,7 @@
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="7">
         <v>42235380</v>
       </c>
       <c r="B129" s="4">
@@ -9665,7 +9644,7 @@
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="7">
         <v>42263757</v>
       </c>
       <c r="B130" s="4">
@@ -9718,7 +9697,7 @@
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="7">
         <v>42120328</v>
       </c>
       <c r="B131" s="4">
@@ -9771,7 +9750,7 @@
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="7">
         <v>42151241</v>
       </c>
       <c r="B132" s="4">
@@ -9824,7 +9803,7 @@
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>513</v>
       </c>
       <c r="B133" s="4">
@@ -9877,7 +9856,7 @@
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="7">
         <v>42164126</v>
       </c>
       <c r="B134" s="4">
@@ -9930,7 +9909,7 @@
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="7">
         <v>42188233</v>
       </c>
       <c r="B135" s="4">
@@ -9983,7 +9962,7 @@
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="7">
         <v>42227174</v>
       </c>
       <c r="B136" s="4">
@@ -10036,7 +10015,7 @@
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="7">
         <v>42234951</v>
       </c>
       <c r="B137" s="4">
@@ -10089,7 +10068,7 @@
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="7">
         <v>42174375</v>
       </c>
       <c r="B138" s="4">
@@ -10142,7 +10121,7 @@
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="7" t="s">
         <v>531</v>
       </c>
       <c r="B139" s="4">
@@ -10195,7 +10174,7 @@
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="7" t="s">
         <v>534</v>
       </c>
       <c r="B140" s="4">
@@ -10248,7 +10227,7 @@
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="7">
         <v>42288344</v>
       </c>
       <c r="B141" s="4">
@@ -10301,7 +10280,7 @@
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="7">
         <v>42271794</v>
       </c>
       <c r="B142" s="4">
@@ -10354,7 +10333,7 @@
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="7">
         <v>42260510</v>
       </c>
       <c r="B143" s="4">
@@ -10407,7 +10386,7 @@
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="7">
         <v>42278304</v>
       </c>
       <c r="B144" s="4">
@@ -10460,7 +10439,7 @@
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="7">
         <v>42269552</v>
       </c>
       <c r="B145" s="4">
@@ -10513,7 +10492,7 @@
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="7">
         <v>42230078</v>
       </c>
       <c r="B146" s="4">
@@ -10566,7 +10545,7 @@
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="7">
         <v>42242925</v>
       </c>
       <c r="B147" s="4">
@@ -10619,7 +10598,7 @@
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="7">
         <v>42162836</v>
       </c>
       <c r="B148" s="4">
@@ -10672,7 +10651,7 @@
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="7">
         <v>42287925</v>
       </c>
       <c r="B149" s="4">
@@ -10725,7 +10704,7 @@
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="7" t="s">
         <v>560</v>
       </c>
       <c r="B150" s="4">
@@ -10778,7 +10757,7 @@
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="7">
         <v>42265435</v>
       </c>
       <c r="B151" s="4">
@@ -10831,7 +10810,7 @@
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="7">
         <v>42271014</v>
       </c>
       <c r="B152" s="4">
@@ -10884,7 +10863,7 @@
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="7">
         <v>42269653</v>
       </c>
       <c r="B153" s="4">
@@ -10937,7 +10916,7 @@
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="7">
         <v>42263916</v>
       </c>
       <c r="B154" s="4">
@@ -10990,7 +10969,7 @@
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="A155" s="7" t="s">
         <v>581</v>
       </c>
       <c r="B155" s="4">
@@ -11043,7 +11022,7 @@
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="7">
         <v>42231148</v>
       </c>
       <c r="B156" s="4">
@@ -11096,7 +11075,7 @@
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="7">
         <v>42280252</v>
       </c>
       <c r="B157" s="4">
@@ -11146,7 +11125,7 @@
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="7">
         <v>42270478</v>
       </c>
       <c r="B158" s="4">
@@ -11196,7 +11175,7 @@
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="7">
         <v>42276023</v>
       </c>
       <c r="B159" s="4">
@@ -11246,7 +11225,7 @@
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="7">
         <v>42270478</v>
       </c>
       <c r="B160" s="4">

--- a/SoleraWeb/src/java/CARGA SOLERA.xlsx
+++ b/SoleraWeb/src/java/CARGA SOLERA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEAS\Desktop\SoleraWeb\SoleraWeb\src\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080397DA-E001-4CC1-A1D5-069022A0FD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810253E1-2DA2-4F78-ABA5-2CC61A16284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>MARCA</t>
   </si>
@@ -117,15 +117,9 @@
     <t>WBAHS7105G5E78738</t>
   </si>
   <si>
-    <t>2022-11-02</t>
-  </si>
-  <si>
     <t>nd</t>
   </si>
   <si>
-    <t>2022-08-07</t>
-  </si>
-  <si>
     <t>03604040</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
   </si>
   <si>
     <t>MAJFP1MD1GA120800</t>
-  </si>
-  <si>
-    <t>2022-08-29</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1059,7 @@
   <dimension ref="A1:Q160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,20 +1153,20 @@
       <c r="A2">
         <v>42275746</v>
       </c>
-      <c r="B2" t="s">
-        <v>34</v>
+      <c r="B2" s="4">
+        <v>44802</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -1187,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -1199,33 +1190,33 @@
         <v>2016</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
-        <v>34</v>
+      <c r="P2" s="4">
+        <v>44802</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>42268513</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
+      <c r="B3" s="4">
+        <v>44780</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -1257,11 +1248,11 @@
       <c r="O3" t="s">
         <v>18</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="4">
+        <v>44867</v>
+      </c>
+      <c r="Q3" t="s">
         <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
